--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
   <si>
     <t>IDCasoPrueba</t>
   </si>
@@ -157,12 +157,104 @@
   <si>
     <t>TC1_SI_CUS002</t>
   </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Seleccionar del menú el módulo de “Verificación de los controles”.
+2. El sistema muestra la interfaz “Verificación de Controles”
+3. Seleccionar el Código Política de SI.
+4. El sistema retorna el nombre de la Código Política.
+5. Seleccionar el Código de Control.
+6. El sistema retorna el nombre del Código de Control, así como código y nombre del Responsable.
+</t>
+  </si>
+  <si>
+    <t>Se grabó Verificación de controles SI satisfactoriamente</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Seleccionar del menú el módulo de “Verificación de los controles”.
+2. El sistema muestra la interfaz “Verificación de Controles”
+3. Seleccionar el Código Política de SI.
+4. El sistema retorna el nombre de la Código Política.
+5. Seleccionar el Código de Control.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El sistema retorna el nombre del Código de Control, así como código y nombre del Responsable.
+SubFlujo
+Seleccionar la opción "Buscar"
+El Sistema lista las verificaciones del cumplimiento de Control
+7. Selecciona la opción “Registrar Nueva Verificación”.
+8. El sistema muestra la interfaz “Registrar Verificación” con los datos registrados en el paso 6.
+9. Seleccionar el Tipo de Verificación, Resultado Dado e ingresa información en la casilla de observación.
+10. Seleccionar la opción “Grabar”.
+11. El sistema muestra un mensaje de confirmación para guardar la verificación.
+12. Seleccionar la opción “Si”
+13. El sistema guarda el registro de verificación.
+14. El sistema muestra un mensaje de notificación.
+15. Seleccionar la opción “Aceptar”.
+16. El sistema retorna a la interfaz “Ver Verificaciones” para ingresar un nuevo registro. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. En el menú no figura la opción "Verificación de los Controles" sino "Creación de Verificación de Controles"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Falta paso 7. Se selecciona Fecha de verificación desde y hasta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+En el SubFlujo "Buscar" sólo se menciona: 
+Si el actor luego del paso 6 del flujo básico selecciona la opción “Buscar”.
+1. El sistema lista las verificaciones del cumplimiento del control, más no se detallan los campos que se muestran en el listado como CodVerificación, CodControl, nomControl, nomEmpleado, fechaVerificación, tipoVerificacion, observacion y resultado
+</t>
+    </r>
+  </si>
+  <si>
+    <t>El menú debe mostrar la opción “Verificación de los controles”.
+El sistema lista las verificaciones del cumplimiento del controlcon los campos CodVerificación, CodControl, nomControl, nomEmpleado, fechaVerificación, tipoVerificacion, observacion y resultado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +285,12 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -294,16 +392,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -313,6 +434,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,15 +451,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,269 +746,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="51.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="30">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="225">
+    <row r="2" spans="1:9" ht="345">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="13">
+      <c r="E2" s="24">
         <v>41311</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
+      <c r="F2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="390" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="B3" s="22"/>
+      <c r="C3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="54.75" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="B4" s="22"/>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="48.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2">
+      <c r="B5" s="23"/>
+      <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="G3:G5"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -904,31 +902,31 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1167,31 +1165,31 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1431,31 +1429,31 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1688,7 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
@@ -1737,16 +1735,16 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="24">
         <v>41311</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -1767,22 +1765,22 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="8"/>
@@ -1791,48 +1789,48 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="18"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="345">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="19"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="60.75" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1865,31 +1863,31 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
@@ -216,8 +216,12 @@
     </r>
   </si>
   <si>
+    <t>El menú debe mostrar la opción “Verificación de los controles”.
+El sistema lista las verificaciones del cumplimiento del controlcon los campos CodVerificación, CodControl, nomControl, nomEmpleado, fechaVerificación, tipoVerificacion, observacion y resultado</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1. En el menú no figura la opción "Verificación de los Controles" sino "Creación de Verificación de Controles"
+      <t xml:space="preserve">1. En el menú no figura la opción "Verificación de los Controles" sino "Ver Verificaciones"
 </t>
     </r>
     <r>
@@ -244,10 +248,6 @@
 1. El sistema lista las verificaciones del cumplimiento del control, más no se detallan los campos que se muestran en el listado como CodVerificación, CodControl, nomControl, nomEmpleado, fechaVerificación, tipoVerificacion, observacion y resultado
 </t>
     </r>
-  </si>
-  <si>
-    <t>El menú debe mostrar la opción “Verificación de los controles”.
-El sistema lista las verificaciones del cumplimiento del controlcon los campos CodVerificación, CodControl, nomControl, nomEmpleado, fechaVerificación, tipoVerificacion, observacion y resultado</t>
   </si>
 </sst>
 </file>
@@ -407,6 +407,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -424,15 +433,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -795,13 +795,13 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="24">
@@ -811,10 +811,10 @@
         <v>32</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>31</v>
@@ -824,19 +824,19 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="25"/>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="18" t="s">
         <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -847,15 +847,15 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="25"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
@@ -864,27 +864,27 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="26"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="E2:E5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="G3:G5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1735,13 +1735,13 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="24">
@@ -1765,19 +1765,19 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="25"/>
       <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="15" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="27" t="s">
@@ -1789,17 +1789,17 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="25"/>
       <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="28"/>
       <c r="J4" s="8"/>
     </row>
@@ -1807,17 +1807,17 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="25"/>
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="29"/>
       <c r="J5" s="8"/>
     </row>
@@ -1825,11 +1825,11 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="26"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="12915" windowHeight="7740"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="12915" windowHeight="7740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SI_CUS002" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
   <si>
     <t>IDCasoPrueba</t>
   </si>
@@ -253,8 +253,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,11 +458,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -536,6 +541,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -570,6 +576,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -745,14 +752,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A3" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -762,7 +769,7 @@
     <col min="8" max="8" width="16" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -791,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="345">
+    <row r="2" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -820,7 +827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="390" customHeight="1">
+    <row r="3" spans="1:9" ht="390" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -843,7 +850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="54.75" customHeight="1">
+    <row r="4" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -860,7 +867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="48.75" customHeight="1">
+    <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -892,16 +899,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -930,7 +937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="225">
+    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -953,7 +960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -966,7 +973,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -979,7 +986,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -992,7 +999,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1005,7 +1012,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1018,7 +1025,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1031,7 +1038,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1044,7 +1051,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1057,7 +1064,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1070,7 +1077,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1083,7 +1090,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1096,7 +1103,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1109,7 +1116,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1122,7 +1129,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1135,7 +1142,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1155,16 +1162,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1193,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="225">
+    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1216,7 +1223,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1229,7 +1236,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1242,7 +1249,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1255,7 +1262,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1268,7 +1275,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1281,7 +1288,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1294,7 +1301,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1307,7 +1314,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1320,7 +1327,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1333,7 +1340,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1346,7 +1353,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1359,7 +1366,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1372,7 +1379,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1385,7 +1392,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1398,7 +1405,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1419,16 +1426,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1457,7 +1464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="225">
+    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1480,7 +1487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1493,7 +1500,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1506,7 +1513,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1519,7 +1526,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1532,7 +1539,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1545,7 +1552,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1558,7 +1565,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1571,7 +1578,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1584,7 +1591,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1597,7 +1604,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1610,7 +1617,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1623,7 +1630,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1636,7 +1643,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1649,7 +1656,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1662,7 +1669,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1683,14 +1690,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -1702,7 +1709,7 @@
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +1738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="190.5" customHeight="1">
+    <row r="2" spans="1:10" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1761,7 +1768,7 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="363.75" customHeight="1">
+    <row r="3" spans="1:10" ht="363.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1785,7 +1792,7 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="362.25" customHeight="1">
+    <row r="4" spans="1:10" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1803,7 +1810,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="345">
+    <row r="5" spans="1:10" ht="345" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1821,7 +1828,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="60.75" customHeight="1">
+    <row r="6" spans="1:10" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1831,7 +1838,9 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1853,16 +1862,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1891,7 +1900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="225">
+    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1914,7 +1923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1927,7 +1936,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1940,7 +1949,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1953,7 +1962,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1966,7 +1975,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1979,7 +1988,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1992,7 +2001,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2005,7 +2014,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2018,7 +2027,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2031,7 +2040,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2044,7 +2053,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2057,7 +2066,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2070,7 +2079,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2083,7 +2092,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2096,7 +2105,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="12915" windowHeight="7740" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="12915" windowHeight="7740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SI_CUS002" sheetId="2" r:id="rId1"/>
     <sheet name="SI_CUS006" sheetId="3" r:id="rId2"/>
-    <sheet name="SI_CUS013" sheetId="4" r:id="rId3"/>
-    <sheet name="SI_CUS014" sheetId="5" r:id="rId4"/>
-    <sheet name="SI_CUS015" sheetId="1" r:id="rId5"/>
-    <sheet name="Hoja3" sheetId="6" r:id="rId6"/>
+    <sheet name="SI_CUS012" sheetId="6" r:id="rId3"/>
+    <sheet name="SI_CUS013" sheetId="4" r:id="rId4"/>
+    <sheet name="SI_CUS014" sheetId="5" r:id="rId5"/>
+    <sheet name="SI_CUS015" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
   <si>
     <t>IDCasoPrueba</t>
   </si>
@@ -248,6 +248,9 @@
 1. El sistema lista las verificaciones del cumplimiento del control, más no se detallan los campos que se muestran en el listado como CodVerificación, CodControl, nomControl, nomEmpleado, fechaVerificación, tipoVerificacion, observacion y resultado
 </t>
     </r>
+  </si>
+  <si>
+    <t>Se actualiza el Proceso satisfactoriamente</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -451,6 +454,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1175,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,10 +1700,274 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +2030,7 @@
       <c r="F2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="31" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -1828,7 +2101,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1841,9 +2114,15 @@
       <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="G6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J6" s="8"/>
     </row>
   </sheetData>
@@ -1859,268 +2138,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="12915" windowHeight="7740" activeTab="5"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="12915" windowHeight="7740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SI_CUS002" sheetId="2" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="SI_CUS014" sheetId="5" r:id="rId5"/>
     <sheet name="SI_CUS015" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
   <si>
     <t>IDCasoPrueba</t>
   </si>
@@ -252,12 +252,249 @@
   <si>
     <t>Se actualiza el Proceso satisfactoriamente</t>
   </si>
+  <si>
+    <t>TC1_SI_CUS006</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>V9</t>
+  </si>
+  <si>
+    <t>Paola Rojas Chicoma</t>
+  </si>
+  <si>
+    <t>1. El sistema muestra un mensaje de notificación, indicando que el registro fue grabado con éxito.
+2. El sistema limpia los campos del formulario.</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Incidencias" de la interfaz principal.
+2. El sistema muestra la interfaz "Registrar Incidencia" donde se visualizan las listas desplegables de control, prioridad e impacto, y las cajas de texto para ingresar el número de ticket, fecha de apertura de la incidencia, resumen de la incidencia, acción inmediata, fecha y hora de la acción, causa y estimación de costo de la incidencia.
+3.  Ingresar el número de ticket.
+4. Seleccionar un elemento de la lista "Control"
+5. Seleccionar un elemento de la lista "Prioridad"
+6. Seleccionar un elemento de la lista "Impacto"
+7.  Ingresar la fecha de apertura de la incidencia.
+8.  Ingresar el resumen de la incidencia.
+9.  Ingresar la acción inmediata.
+10.  Ingresar la fecha de la acción.
+11.  Ingresar la hora de la acción.
+12.  Ingresar la causa de la incidencia.
+13.  Ingresar la estimación de costo de la incidencia.
+14. Dar clic sobre botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Incidencias" de la interfaz principal.
+2. El sistema muestra la interfaz "Registrar Incidencia" donde se muestra las listas desplegables de control, prioridad e impacto, y las cajas de texto para ingresar el número de ticket, fecha de apertura de la incidencia, resumen de la incidencia, acción inmediata, fecha y hora de la acción, causa y estimación de costo de la incidencia.
+3.  Ingresar el número de ticket.
+4. Seleccionar un elemento de la lista "Control"
+5. No seleccionar un elemento de la lista "Prioridad"
+6. Seleccionar un elemento de la lista "Impacto"
+7.  Ingresar la fecha de apertura de la incidencia.
+8.  Ingresar el resumen de la incidencia.
+9.  Ingresar la acción inmediata.
+10.  Ingresar la fecha de la acción.
+11.  Ingresar la hora de la acción.
+12.  Ingresar la causa de la incidencia.
+13.  Ingresar la estimación de costo de la incidencia.
+14. Dar clic sobre botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Incidencias" de la interfaz principal.
+2. El sistema muestra la interfaz "Registrar Incidencia" donde se muestra las listas desplegables de control, prioridad e impacto, y las cajas de texto para ingresar el número de ticket, fecha de apertura de la incidencia, resumen de la incidencia, acción inmediata, fecha y hora de la acción, causa y estimación de costo de la incidencia.
+3.  Ingresar el número de ticket.
+4. Seleccionar un elemento de la lista "Control"
+5. Seleccionar un elemento de la lista "Prioridad"
+6. No seleccionar un elemento de la lista "Impacto"
+7.  Ingresar la fecha de apertura de la incidencia.
+8.  Ingresar el resumen de la incidencia.
+9.  Ingresar la acción inmediata.
+10.  Ingresar la fecha de la acción.
+11.  Ingresar la hora de la acción.
+12.  Ingresar la causa de la incidencia.
+13.  Ingresar la estimación de costo de la incidencia.
+14. Dar clic sobre botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Incidencias" de la interfaz principal.
+2. El sistema muestra la interfaz "Registrar Incidencia" donde se muestra las listas desplegables de control, prioridad e impacto, y las cajas de texto para ingresar el número de ticket, fecha de apertura de la incidencia, resumen de la incidencia, acción inmediata, fecha y hora de la acción, causa y estimación de costo de la incidencia.
+3.  Ingresar el número de ticket.
+4. Seleccionar un elemento de la lista "Control"
+5. Seleccionar un elemento de la lista "Prioridad"
+6. Seleccionar un elemento de la lista "Impacto"
+7.  No ingresar la fecha de apertura de la incidencia.
+8.  Ingresar el resumen de la incidencia.
+9.  Ingresar la acción inmediata.
+10.  Ingresar la fecha de la acción.
+11.  Ingresar la hora de la acción.
+12.  Ingresar la causa de la incidencia.
+13.  Ingresar la estimación de costo de la incidencia.
+14. Dar clic sobre botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Incidencias" de la interfaz principal.
+2. El sistema muestra la interfaz "Registrar Incidencia" donde se muestra las listas desplegables de control, prioridad e impacto, y las cajas de texto para ingresar el número de ticket, fecha de apertura de la incidencia, resumen de la incidencia, acción inmediata, fecha y hora de la acción, causa y estimación de costo de la incidencia.
+3.  Ingresar el número de ticket.
+4. Seleccionar un elemento de la lista "Control"
+5. Seleccionar un elemento de la lista "Prioridad"
+6. Seleccionar un elemento de la lista "Impacto"
+7.  Ingresar la fecha de apertura de la incidencia.
+8.  No ingresar el resumen de la incidencia.
+9.  Ingresar la acción inmediata.
+10.  Ingresar la fecha de la acción.
+11.  Ingresar la hora de la acción.
+12.  Ingresar la causa de la incidencia.
+13.  Ingresar la estimación de costo de la incidencia.
+14. Dar clic sobre botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Incidencias" de la interfaz principal.
+2. El sistema muestra la interfaz "Registrar Incidencia" donde se muestra las listas desplegables de control, prioridad e impacto, y las cajas de texto para ingresar el número de ticket, fecha de apertura de la incidencia, resumen de la incidencia, acción inmediata, fecha y hora de la acción, causa y estimación de costo de la incidencia.
+3.  Ingresar el número de ticket.
+4. Seleccionar un elemento de la lista "Control"
+5. Seleccionar un elemento de la lista "Prioridad"
+6. Seleccionar un elemento de la lista "Impacto"
+7.  Ingresar la fecha de apertura de la incidencia.
+8.  Ingresar el resumen de la incidencia.
+9.  No ingresar la acción inmediata.
+10.  Ingresar la fecha de la acción.
+11.  Ingresar la hora de la acción.
+12.  Ingresar la causa de la incidencia.
+13.  Ingresar la estimación de costo de la incidencia.
+14. Dar clic sobre botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Incidencias" de la interfaz principal.
+2. El sistema muestra la interfaz "Registrar Incidencia" donde se muestra las listas desplegables de control, prioridad e impacto, y las cajas de texto para ingresar el número de ticket, fecha de apertura de la incidencia, resumen de la incidencia, acción inmediata, fecha y hora de la acción, causa y estimación de costo de la incidencia.
+3.  Ingresar el número de ticket.
+4. Seleccionar un elemento de la lista "Control"
+5. Seleccionar un elemento de la lista "Prioridad"
+6. Seleccionar un elemento de la lista "Impacto"
+7.  Ingresar la fecha de apertura de la incidencia.
+8.  Ingresar el resumen de la incidencia.
+9.  Ingresar la acción inmediata.
+10.  No ingresar la fecha de la acción.
+11.  Ingresar la hora de la acción.
+12.  Ingresar la causa de la incidencia.
+13.  Ingresar la estimación de costo de la incidencia.
+14. Dar clic sobre botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Incidencias" de la interfaz principal.
+2. El sistema muestra la interfaz "Registrar Incidencia" donde se muestra las listas desplegables de control, prioridad e impacto, y las cajas de texto para ingresar el número de ticket, fecha de apertura de la incidencia, resumen de la incidencia, acción inmediata, fecha y hora de la acción, causa y estimación de costo de la incidencia.
+3.  Ingresar el número de ticket.
+4. Seleccionar un elemento de la lista "Control"
+5. Seleccionar un elemento de la lista "Prioridad"
+6. Seleccionar un elemento de la lista "Impacto"
+7.  Ingresar la fecha de apertura de la incidencia.
+8.  Ingresar el resumen de la incidencia.
+9.  Ingresar la acción inmediata.
+10.  Ingresar la fecha de la acción.
+11.  No ingresar la hora de la acción.
+12.  Ingresar la causa de la incidencia.
+13.  Ingresar la estimación de costo de la incidencia.
+14. Dar clic sobre botón "Grabar".</t>
+  </si>
+  <si>
+    <t>V10</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Incidencias" de la interfaz principal.
+2. El sistema muestra la interfaz "Registrar Incidencia" donde se muestra las listas desplegables de control, prioridad e impacto, y las cajas de texto para ingresar el número de ticket, fecha de apertura de la incidencia, resumen de la incidencia, acción inmediata, fecha y hora de la acción, causa y estimación de costo de la incidencia.
+3.  Ingresar el número de ticket.
+4. Seleccionar un elemento de la lista "Control"
+5. Seleccionar un elemento de la lista "Prioridad"
+6. Seleccionar un elemento de la lista "Impacto"
+7.  Ingresar la fecha de apertura de la incidencia.
+8.  Ingresar el resumen de la incidencia.
+9.  Ingresar la acción inmediata.
+10.  Ingresar la fecha de la acción.
+11.  Ingresar la hora de la acción.
+12.  No ingresar la causa de la incidencia.
+13.  Ingresar la estimación de costo de la incidencia.
+14. Dar clic sobre botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Incidencias" de la interfaz principal.
+2. El sistema muestra la interfaz "Registrar Incidencia" donde se muestra las listas desplegables de control, prioridad e impacto, y las cajas de texto para ingresar el número de ticket, fecha de apertura de la incidencia, resumen de la incidencia, acción inmediata, fecha y hora de la acción, causa y estimación de costo de la incidencia.
+3.  Ingresar el número de ticket.
+4. Seleccionar un elemento de la lista "Control"
+5. Seleccionar un elemento de la lista "Prioridad"
+6. Seleccionar un elemento de la lista "Impacto"
+7.  Ingresar la fecha de apertura de la incidencia.
+8.  Ingresar el resumen de la incidencia.
+9.  Ingresar la acción inmediata.
+10.  Ingresar la fecha de la acción.
+11.  Ingresar la hora de la acción.
+12.  Ingresar la causa de la incidencia.
+13.  No ingresar la estimación de costo de la incidencia.
+14. Dar clic sobre botón "Grabar".</t>
+  </si>
+  <si>
+    <t>TC1_SI_CUS014</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Crear Proceso" de la interfaz principal.
+2. El sistema muestra la interfaz "Crear Procesos" donde se visualizan las listas desplegables de tipo de proceso, responsable, MTD, RTO, prioridad correspondiente a los impactos de imagen, operativo, económico, regulatorio o contractual e imagen, y las cajas de texto para ingresar el nombre y objetivo del proceso.
+3. Ingresar el nombre del proceso.
+4. Ingresar el objetivo del proceso.
+5. Seleccionar un elemento de la lista "Tipo Proceso".
+6. Seleccionar un elemento de la lista "Responsable".
+7. Seleccionar un elemento de la lista "MTD".
+8. Seleccionar un elemento de la lista "RTO".
+9.  Seleccionar un elemento de la lista "Prioridad del Impacto Imagen".
+10. Seleccionar un elemento de la lista "Prioridad del Impacto Operativo".
+11. Seleccionar un elemento de la lista "Prioridad del Impacto Económico".
+12. Seleccionar un elemento de la lista "Prioridad del Impacto Regulatorio o Contractual".
+13. Seleccionar un elemento de la lista "Prioridad del Impacto Imagen".
+14. Dar clic sobre botón "Registrar Proceso".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Crear Proceso" de la interfaz principal.
+2. El sistema muestra la interfaz "Crear Procesos" donde se visualizan las listas desplegables de tipo de proceso, responsable, MTD, RTO, prioridad correspondiente a los impactos de imagen, operativo, económico, regulatorio o contractual e imagen, y las cajas de texto para ingresar el nombre y objetivo del proceso.
+3. Ingresar el nombre del proceso.
+4. No ingresar el objetivo del proceso.
+5. Seleccionar un elemento de la lista "Tipo Proceso".
+6. Seleccionar un elemento de la lista "Responsable".
+7. Seleccionar un elemento de la lista "MTD".
+8. Seleccionar un elemento de la lista "RTO".
+9.  Seleccionar un elemento de la lista "Prioridad del Impacto Imagen".
+10. Seleccionar un elemento de la lista "Prioridad del Impacto Operativo".
+11. Seleccionar un elemento de la lista "Prioridad del Impacto Económico".
+12. Seleccionar un elemento de la lista "Prioridad del Impacto Regulatorio o Contractual".
+13. Seleccionar un elemento de la lista "Prioridad del Impacto Imagen".
+14. Dar clic sobre botón "Registrar Proceso".</t>
+  </si>
+  <si>
+    <t>1. En el menú no figura la opción "Crear Proceso" sino "Creacion de Procesos".
+2. El sistema no muestra la interfaz "Crear Procesos" sino "Registrar Proceso".
+3. La interfaz muestra por duplicado la lista desplegable "Proridad del Impacto Imagen".
+4. El sistema muestra un mensaje de notificación, indicando que el registro fue grabado con éxito.
+5. El sistema no limpia las listas despegables de prioridad correspondiente a los impactos de imagen, operativo, económico, regulatorio o contractual e imagen del formulario.</t>
+  </si>
+  <si>
+    <t>1. El menú debe mostrar la opción "Creacion de Procesos". 
+2. El sistema debe mostrar la interfaz "Registrar Proceso". 
+3. La interfaz debe mostrar la lista despegable "Proridad del Impacto Imagen" una sola vez. 
+4. El sistema muestra un mensaje de notificación, indicando que el registro fue grabado con éxito.
+5. El sistema debe limpiar los campos del formulario sin excepción.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,7 +541,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -364,11 +601,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -410,6 +671,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -455,11 +722,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,7 +853,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -585,7 +887,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -761,14 +1062,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -778,7 +1079,7 @@
     <col min="8" max="8" width="16" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -807,20 +1108,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="345">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="26">
         <v>41311</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -836,59 +1137,59 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="390" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="390" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="21" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="20" t="s">
         <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="54.75" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="48.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
@@ -908,16 +1209,263 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="315">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="32">
+        <v>41311</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="315">
+      <c r="A3" s="37">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" ht="315">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" ht="315">
+      <c r="A5" s="37">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" ht="315">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:9" ht="315">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" ht="315">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:9" ht="315">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:9" ht="315">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:9" ht="330">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="I2:I11"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -946,7 +1494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="225">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -969,7 +1517,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -982,7 +1530,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -995,7 +1543,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1008,7 +1556,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1021,7 +1569,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1034,7 +1582,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1047,7 +1595,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1060,7 +1608,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1073,7 +1621,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1086,7 +1634,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1099,7 +1647,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1112,7 +1660,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1125,7 +1673,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1138,7 +1686,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1151,7 +1699,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1166,21 +1714,22 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="225">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1232,7 +1781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1245,7 +1794,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1258,7 +1807,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1271,7 +1820,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1284,7 +1833,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1297,7 +1846,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1310,7 +1859,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1323,7 +1872,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1336,7 +1885,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1349,7 +1898,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1362,7 +1911,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1375,7 +1924,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1388,7 +1937,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1401,7 +1950,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1414,7 +1963,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1434,17 +1983,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1473,489 +2033,61 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" ht="409.5">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B2" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="32">
+        <v>41311</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.5">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="B3" s="35"/>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="43"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -1963,14 +2095,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G5"/>
-    </sheetView>
+    <sheetView zoomScale="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -1982,7 +2112,7 @@
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2011,26 +2141,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="190.5" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="26">
         <v>41311</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -2041,83 +2171,83 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="363.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="363.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="29" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="362.25" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="25"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="345">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="29"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="409.6" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="15" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="1" t="s">

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="12915" windowHeight="7740" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="12915" windowHeight="7740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SI_CUS002" sheetId="2" r:id="rId1"/>
-    <sheet name="SI_CUS006" sheetId="3" r:id="rId2"/>
-    <sheet name="SI_CUS012" sheetId="6" r:id="rId3"/>
-    <sheet name="SI_CUS013" sheetId="4" r:id="rId4"/>
+    <sheet name="SI_CUS013" sheetId="8" r:id="rId2"/>
+    <sheet name="SI_CUS012" sheetId="7" r:id="rId3"/>
+    <sheet name="SI_CUS006" sheetId="3" r:id="rId4"/>
     <sheet name="SI_CUS014" sheetId="5" r:id="rId5"/>
     <sheet name="SI_CUS015" sheetId="1" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
   <si>
     <t>IDCasoPrueba</t>
   </si>
@@ -131,28 +131,6 @@
 10.  El sistema muestra un mensaje de confirmación:” ¿Está seguro que desea modificar el registro?” 
 11. Se eligió la opción “Aceptar”   del mensaje de confirmación
 12. El sistema muestra un mensaje satisfactorio “El proceso se ha actualizado satisfactoriamente”</t>
-  </si>
-  <si>
-    <t>XXXXX</t>
-  </si>
-  <si>
-    <t>1. Entrar al módulo de Gestión
-2. Seleccionar la opción Registrar
-3. Completar todos los campos
-4. Seleccionar la opción Grabar</t>
-  </si>
-  <si>
-    <t>1. El sistema muestra un mensaje de error</t>
-  </si>
-  <si>
-    <t>El sistema debe guardar los datos y mostrar un mensaje de información indicando que fue grabado correctamente</t>
-  </si>
-  <si>
-    <t>123
-456
-789
-015
-465</t>
   </si>
   <si>
     <t>TC1_SI_CUS002</t>
@@ -489,12 +467,141 @@
 4. El sistema muestra un mensaje de notificación, indicando que el registro fue grabado con éxito.
 5. El sistema debe limpiar los campos del formulario sin excepción.</t>
   </si>
+  <si>
+    <t>TC1_SI_CUS012</t>
+  </si>
+  <si>
+    <t>Marco Bustinza Laurente</t>
+  </si>
+  <si>
+    <t>1. El sistema muestra un mensaje de notificación, indicando que se guardo satisfactoriamente el registro.</t>
+  </si>
+  <si>
+    <t>1. El sistema muestra un mensaje de notificación, indicando que se llenen los campos obligatorios.</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Activos" de la interfaz principal.
+2. El sistema muestra la interfaz "Creación de Activos" donde se visualizan las cajas de texto para ingresar el Nombre de Activo, Responsable, RPO, Tipo de Activo, Ubicación, Moneda, Costo de Activo y Activo Padre.
+3.  No se Ingresa el Nombre de Activo
+4. Seleccionar un elemento de la lista "Responsable"
+5. Seleccionar un elemento de la lista "RPO"
+6. Seleccionar un elemento de la lista "Tipo Activo"
+7.  Ingresar la Ubicación.
+8.  Seleccionar un elemento de la lista "Moneda".
+9.  Ingresar el Costo del Activo.
+10.  Seleccionar un elemento de la lista " Activo Padre".
+11.  Dar click sobre el botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Activos" de la interfaz principal.
+2. El sistema muestra la interfaz "Creación de Activos" donde se visualizan las cajas de texto para ingresar el Nombre de Activo, Responsable, RPO, Tipo de Activo, Ubicación, Moneda, Costo de Activo y Activo Padre.
+3.  Ingresar Nombre de Activo
+4. Seleccionar un elemento de la lista "Responsable"
+5. Seleccionar un elemento de la lista "RPO"
+6. Seleccionar un elemento de la lista "Tipo Activo"
+7.  Ingresar la Ubicación.
+8.  Seleccionar un elemento de la lista "Moneda".
+9.  Ingresar el Costo del Activo.
+10.  Seleccionar un elemento de la lista " Activo Padre".
+11.  Dar click sobre el botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Activos" de la interfaz principal.
+2. El sistema muestra la interfaz "Creación de Activos" donde se visualizan las cajas de texto para ingresar el Nombre de Activo, Responsable, RPO, Tipo de Activo, Ubicación, Moneda, Costo de Activo y Activo Padre.
+3. Ingresar el Nombre de Activo
+4.  No se selecciona un elemento de la lista "Responsable"
+5. Seleccionar un elemento de la lista "RPO"
+6. Seleccionar un elemento de la lista "Tipo Activo"
+7.  Ingresar la Ubicación.
+8.  Seleccionar un elemento de la lista "Moneda".
+9.  Ingresar el Costo del Activo.
+10.  Seleccionar un elemento de la lista " Activo Padre".
+11.  Dar click sobre el botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Activos" de la interfaz principal.
+2. El sistema muestra la interfaz "Creación de Activos" donde se visualizan las cajas de texto para ingresar el Nombre de Activo, Responsable, RPO, Tipo de Activo, Ubicación, Moneda, Costo de Activo y Activo Padre.
+3. Ingresar el Nombre de Activo
+4. Seleccionar un elemento de la lista "Responsable"
+5. No se selecciona un elemento de la lista "RPO"
+6. Seleccionar un elemento de la lista "Tipo Activo"
+7.  Ingresar la Ubicación.
+8.  Seleccionar un elemento de la lista "Moneda".
+9.  Ingresar el Costo del Activo.
+10.  Seleccionar un elemento de la lista " Activo Padre".
+11.  Dar click sobre el botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Activos" de la interfaz principal.
+2. El sistema muestra la interfaz "Creación de Activos" donde se visualizan las cajas de texto para ingresar el Nombre de Activo, Responsable, RPO, Tipo de Activo, Ubicación, Moneda, Costo de Activo y Activo Padre.
+3. Ingresar el Nombre de Activo
+4. Seleccionar un elemento de la lista "Responsable"
+5. Seleccionar un elemento de la lista "RPO".
+6. No se selecciona un elemento de la lista "Tipo Activo".
+7.  Ingresar la Ubicación.
+8.  Seleccionar un elemento de la lista "Moneda".
+9.  Ingresar el Costo del Activo.
+10.  Seleccionar un elemento de la lista " Activo Padre".
+11.  Dar click sobre el botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Activos" de la interfaz principal.
+2. El sistema muestra la interfaz "Creación de Activos" donde se visualizan las cajas de texto para ingresar el Nombre de Activo, Responsable, RPO, Tipo de Activo, Ubicación, Moneda, Costo de Activo y Activo Padre.
+3. Ingresar el Nombre de Activo
+4. Seleccionar un elemento de la lista "Responsable"
+5. Seleccionar un elemento de la lista "RPO".
+6. Selecciona un elemento de la lista "Tipo Activo".
+7.  No se Ingresa la Ubicación.
+8.  Seleccionar un elemento de la lista "Moneda".
+9.  Ingresar el Costo del Activo.
+10.  Seleccionar un elemento de la lista " Activo Padre".
+11.  Dar click sobre el botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Activos" de la interfaz principal.
+2. El sistema muestra la interfaz "Creación de Activos" donde se visualizan las cajas de texto para ingresar el Nombre de Activo, Responsable, RPO, Tipo de Activo, Ubicación, Moneda, Costo de Activo y Activo Padre.
+3. Ingresar el Nombre de Activo
+4. Seleccionar un elemento de la lista "Responsable"
+5. Seleccionar un elemento de la lista "RPO".
+6. Selecciona un elemento de la lista "Tipo Activo".
+7. Ingresar la Ubicación.
+8. No se selecciona un elemento de la lista "Moneda".
+9.  Ingresar el Costo del Activo.
+10.  Seleccionar un elemento de la lista " Activo Padre".
+11.  Dar click sobre el botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Activos" de la interfaz principal.
+2. El sistema muestra la interfaz "Creación de Activos" donde se visualizan las cajas de texto para ingresar el Nombre de Activo, Responsable, RPO, Tipo de Activo, Ubicación, Moneda, Costo de Activo y Activo Padre.
+3. Ingresar el Nombre de Activo
+4. Seleccionar un elemento de la lista "Responsable"
+5. Seleccionar un elemento de la lista "RPO".
+6. Selecciona un elemento de la lista "Tipo Activo".
+7. Ingresar la Ubicación.
+8. Seleccionar un elemento de la lista "Moneda".
+9.  No se ingresa el Costo del Activo.
+10.  Seleccionar un elemento de la lista " Activo Padre".
+11.  Dar click sobre el botón "Grabar".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Creacion de Activos" de la interfaz principal.
+2. El sistema muestra la interfaz "Creación de Activos" donde se visualizan las cajas de texto para ingresar el Nombre de Activo, Responsable, RPO, Tipo de Activo, Ubicación, Moneda, Costo de Activo y Activo Padre.
+3. Ingresar el Nombre de Activo
+4. Seleccionar un elemento de la lista "Responsable"
+5. Seleccionar un elemento de la lista "RPO".
+6. Selecciona un elemento de la lista "Tipo Activo".
+7. Ingresar la Ubicación.
+8.  Seleccionar un elemento de la lista "Moneda".
+9.  Ingresar el Costo del Activo.
+10.  No se selecciona un elemento de la lista " Activo Padre".
+11.  Dar click sobre el botón "Grabar".</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,7 +648,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -625,11 +732,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -677,6 +797,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -713,6 +854,27 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,47 +884,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,6 +991,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -887,6 +1026,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1062,14 +1202,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -1079,7 +1219,7 @@
     <col min="8" max="8" width="16" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1108,88 +1248,88 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="345">
+    <row r="2" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>30</v>
+      <c r="B2" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="33">
         <v>41311</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="390" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="390" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>33</v>
+      <c r="D3" s="25"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="54.75" customHeight="1">
+    <row r="4" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="48.75" customHeight="1">
+    <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1209,14 +1349,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1229,7 +1369,7 @@
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1258,740 +1398,202 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="315">
-      <c r="A2" s="34">
+    <row r="2" spans="1:9" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="32">
-        <v>41311</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="35" t="s">
+      <c r="D2" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="37">
+        <v>41310</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="315">
-      <c r="A3" s="37">
+    <row r="3" spans="1:9" ht="303.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="1:9" ht="315">
-      <c r="A4" s="15">
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="1:9" ht="315">
-      <c r="A5" s="37">
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" ht="317.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" ht="315">
-      <c r="A6" s="15">
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" ht="315">
-      <c r="A7" s="15">
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="1:9" ht="315">
-      <c r="A8" s="15">
+      <c r="B7" s="36"/>
+      <c r="C7" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
         <v>7</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:9" ht="315">
-      <c r="A9" s="15">
+      <c r="B8" s="36"/>
+      <c r="C8" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51">
         <v>8</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:9" ht="315">
-      <c r="A10" s="15">
-        <v>9</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:9" ht="330">
-      <c r="A11" s="15">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="I2:I11"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="225">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="225">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -2004,7 +1606,7 @@
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2033,51 +1635,535 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="409.5">
-      <c r="A2" s="34">
+    <row r="2" spans="1:9" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="37">
+        <v>41310</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="303.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" ht="317.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I2:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="37">
+        <v>41311</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="H2:H11"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="37">
+        <v>41311</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="32">
-        <v>41311</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="409.5">
-      <c r="A3" s="37">
+      <c r="I2" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="43"/>
+        <v>54</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2095,12 +2181,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -2112,7 +2200,7 @@
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2141,20 +2229,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="190.5" customHeight="1">
+    <row r="2" spans="1:10" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="33">
         <v>41311</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -2171,84 +2259,84 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="363.75" customHeight="1">
+    <row r="3" spans="1:10" ht="363.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="27"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="43" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="362.25" customHeight="1">
+    <row r="4" spans="1:10" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="30"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="345">
+    <row r="5" spans="1:10" ht="345" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="31"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="409.6" customHeight="1">
+    <row r="6" spans="1:10" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="12915" windowHeight="7740" activeTab="5"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="12915" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SI_CUS002" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="88">
   <si>
     <t>IDCasoPrueba</t>
   </si>
@@ -595,6 +595,168 @@
 9.  Ingresar el Costo del Activo.
 10.  No se selecciona un elemento de la lista " Activo Padre".
 11.  Dar click sobre el botón "Grabar".</t>
+  </si>
+  <si>
+    <t>TC1_SI_CUS013</t>
+  </si>
+  <si>
+    <t>V11</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz “Mantenimiento de Activos” donde se muestra la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Ingresar el Nombre de Activo.
+5. Dar clic sobre el botón "Buscar"</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Mantenimiento de Activos" de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos" donde se muestra la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista "Tipo de Activo".
+4.  Ingresar el Nombre de Activo
+5. Dar Clic sobre el botón "Buscar".
+6. El sistema muestra el Código, Activo, Tipo Activo, RPO, Ubicación, Responsable, Moneda, Costos Activo y Activo Padre.
+7.  Sar Clic sobre el botón "Limpiar".</t>
+  </si>
+  <si>
+    <t>1. El sistema borra los datos ingresados en el campo Nombre Activo y borra los registros de la lista.</t>
+  </si>
+  <si>
+    <t>1. El sistema elimina el registro seleccionado y muestra mensaje de confirmación.</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú "Mantenimiento de Activos" de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos" donde se muestra la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista "Tipo de Activo".
+4.  Se Ingresa el Nombre de Activo
+5. Dar Clic sobre el botón "Buscar".
+6. El sistema muestra el Código, Activo, Tipo Activo, RPO, Ubicación, Responsable, Moneda, Costos Activo y Activo Padre.
+7.  Ubicar la fila del activo a eliminar.
+8.  Seleccionar la opción "Eliminar"
+9. El Sistema muestra el mensaje de confirmación " Esta seguro de eliminar el registro? 
+10. Seleccionar la opción " Si".
+11. El sistema muestra el mensaje " Se eliminó satisfactoriamente el registro".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se modifica el texto del campo "Nombre de Activo".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. El sistema guarda el registro actualizado y muestra mensaje de confirmación.</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se selecciona otro elemento de la lista desplegable "Propietario".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se selecciona otro elemento de la lista desplegable "RPO".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se selecciona otro elemento de la lista desplegable "Tipo Activo".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se modifica el texto del campo "Ubicación".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se selecciona otro elemento de la lista desplegable "Moneda".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se modifica el texto del campo "Costo Activo".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se selecciona otro elemento de la lista desplegable "Activo Padre".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. El sistema realiza la búsqueda y muestra código, Activo, Tipo Activo, RPO, Ubicación, Responsable, Moneda, Costo Activo y Activo Padre como resultado de la búsqueda en la lista creada.</t>
+  </si>
+  <si>
+    <t>1. El sistema realiza la búsqueda y muestra código, nombre, tipo de activo, punto de recuperación objetivo, propietario, moneda, costo del activo y el activo padre, como resultado de la búsqueda.</t>
   </si>
 </sst>
 </file>
@@ -749,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -818,6 +980,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -883,24 +1066,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1252,16 +1417,16 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="40">
         <v>41311</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -1281,19 +1446,19 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="34" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1304,15 +1469,15 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1321,15 +1486,15 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,187 +1563,253 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="306" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49">
+    <row r="2" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="40">
         <v>41310</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="36" t="s">
+      <c r="F2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="303.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
-        <v>2</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="36"/>
-    </row>
-    <row r="4" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+    <row r="4" spans="1:9" ht="352.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:9" ht="317.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
+        <v>76</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="D5" s="32"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="350.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
+      <c r="D6" s="32"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" ht="357" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="48" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="1:9" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="D7" s="32"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" ht="354.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="48" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:9" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
+      <c r="D8" s="32"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" ht="356.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" spans="1:9" ht="306" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="36"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" ht="345.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>8</v>
+      </c>
+      <c r="B10" s="32"/>
       <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="36"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:9" ht="334.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" spans="1:9" ht="354.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="I2:I10"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="D2:D12"/>
+    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="I3:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1589,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,178 +1867,179 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="306" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="44">
         <v>41310</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="303.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="36"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="36"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="317.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="36"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="36"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
+      <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="48" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="36"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="48" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="36"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
+      <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="36"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="306" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="36"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="36"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="I2:I10"/>
     <mergeCell ref="E2:E10"/>
     <mergeCell ref="D2:D10"/>
     <mergeCell ref="B2:B10"/>
@@ -1815,7 +2047,6 @@
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I2:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1826,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,28 +2107,28 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="44">
         <v>41311</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1905,154 +2136,154 @@
       <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="36"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="36"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="36"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="36"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="36"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="36"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="36"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="36"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="36"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2073,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,28 +2354,28 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="43" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="44">
         <v>41311</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="48" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2152,18 +2383,18 @@
       <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="42"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2184,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A3" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,16 +2464,16 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="40">
         <v>41311</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -2263,22 +2494,22 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="50" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="8"/>
@@ -2287,48 +2518,48 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="44"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="345" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="45"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="2" t="s">
         <v>24</v>
       </c>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/Plantilla Resultado CP_SI_CUS.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="12915" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="12915" windowHeight="7740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SI_CUS002" sheetId="2" r:id="rId1"/>
@@ -14,12 +14,146 @@
     <sheet name="SI_CUS014" sheetId="5" r:id="rId5"/>
     <sheet name="SI_CUS015" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="88">
+  <si>
+    <t>1. Seleccionar la opción del menú "Mantenimiento de Activos" de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos" donde se muestra la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista "Tipo de Activo".
+4.  Se Ingresa el Nombre de Activo
+5. Dar Clic sobre el botón "Buscar".
+6. El sistema muestra el Código, Activo, Tipo Activo, RPO, Ubicación, Responsable, Moneda, Costos Activo y Activo Padre.
+7.  Ubicar la fila del activo a eliminar.
+8.  Seleccionar la opción "Eliminar"
+9. El Sistema muestra el mensaje de confirmación " Esta seguro de eliminar el registro? 
+10. Seleccionar la opción " Si".
+11. El sistema muestra el mensaje " Se eliminó satisfactoriamente el registro".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se modifica el texto del campo "Nombre de Activo".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. El sistema guarda el registro actualizado y muestra mensaje de confirmación.</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se selecciona otro elemento de la lista desplegable "Propietario".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se selecciona otro elemento de la lista desplegable "RPO".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se selecciona otro elemento de la lista desplegable "Tipo Activo".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se modifica el texto del campo "Ubicación".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se selecciona otro elemento de la lista desplegable "Moneda".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se modifica el texto del campo "Costo Activo".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
+2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
+3. Seleccionar un elemento de la lista “Tipo de Activo”.
+4.  Se ingresa el Nombre de Activo.
+5. Dar clic sobre botón "Buscar"
+6. Seleccionar una fila de la lista
+7. Elegir la opción “Editar” del registro 
+8. Se selecciona otro elemento de la lista desplegable "Activo Padre".
+9. Seleccionar el botón " Grabar".
+10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
+11. Seleccionar la opción "Si".
+12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
+  </si>
+  <si>
+    <t>1. El sistema realiza la búsqueda y muestra código, Activo, Tipo Activo, RPO, Ubicación, Responsable, Moneda, Costo Activo y Activo Padre como resultado de la búsqueda en la lista creada.</t>
+  </si>
+  <si>
+    <t>1. El sistema realiza la búsqueda y muestra código, nombre, tipo de activo, punto de recuperación objetivo, propietario, moneda, costo del activo y el activo padre, como resultado de la búsqueda.</t>
+  </si>
   <si>
     <t>IDCasoPrueba</t>
   </si>
@@ -624,146 +758,12 @@
   <si>
     <t>1. El sistema elimina el registro seleccionado y muestra mensaje de confirmación.</t>
   </si>
-  <si>
-    <t>1. Seleccionar la opción del menú "Mantenimiento de Activos" de la interfaz principal.
-2. El sistema muestra la interfaz "Mantenimiento de Activos" donde se muestra la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
-3. Seleccionar un elemento de la lista "Tipo de Activo".
-4.  Se Ingresa el Nombre de Activo
-5. Dar Clic sobre el botón "Buscar".
-6. El sistema muestra el Código, Activo, Tipo Activo, RPO, Ubicación, Responsable, Moneda, Costos Activo y Activo Padre.
-7.  Ubicar la fila del activo a eliminar.
-8.  Seleccionar la opción "Eliminar"
-9. El Sistema muestra el mensaje de confirmación " Esta seguro de eliminar el registro? 
-10. Seleccionar la opción " Si".
-11. El sistema muestra el mensaje " Se eliminó satisfactoriamente el registro".</t>
-  </si>
-  <si>
-    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
-2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
-3. Seleccionar un elemento de la lista “Tipo de Activo”.
-4.  Se ingresa el Nombre de Activo.
-5. Dar clic sobre botón "Buscar"
-6. Seleccionar una fila de la lista
-7. Elegir la opción “Editar” del registro 
-8. Se modifica el texto del campo "Nombre de Activo".
-9. Seleccionar el botón " Grabar".
-10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
-11. Seleccionar la opción "Si".
-12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
-  </si>
-  <si>
-    <t>1. El sistema guarda el registro actualizado y muestra mensaje de confirmación.</t>
-  </si>
-  <si>
-    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
-2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
-3. Seleccionar un elemento de la lista “Tipo de Activo”.
-4.  Se ingresa el Nombre de Activo.
-5. Dar clic sobre botón "Buscar"
-6. Seleccionar una fila de la lista
-7. Elegir la opción “Editar” del registro 
-8. Se selecciona otro elemento de la lista desplegable "Propietario".
-9. Seleccionar el botón " Grabar".
-10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
-11. Seleccionar la opción "Si".
-12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
-  </si>
-  <si>
-    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
-2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
-3. Seleccionar un elemento de la lista “Tipo de Activo”.
-4.  Se ingresa el Nombre de Activo.
-5. Dar clic sobre botón "Buscar"
-6. Seleccionar una fila de la lista
-7. Elegir la opción “Editar” del registro 
-8. Se selecciona otro elemento de la lista desplegable "RPO".
-9. Seleccionar el botón " Grabar".
-10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
-11. Seleccionar la opción "Si".
-12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
-  </si>
-  <si>
-    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
-2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
-3. Seleccionar un elemento de la lista “Tipo de Activo”.
-4.  Se ingresa el Nombre de Activo.
-5. Dar clic sobre botón "Buscar"
-6. Seleccionar una fila de la lista
-7. Elegir la opción “Editar” del registro 
-8. Se selecciona otro elemento de la lista desplegable "Tipo Activo".
-9. Seleccionar el botón " Grabar".
-10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
-11. Seleccionar la opción "Si".
-12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
-  </si>
-  <si>
-    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
-2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
-3. Seleccionar un elemento de la lista “Tipo de Activo”.
-4.  Se ingresa el Nombre de Activo.
-5. Dar clic sobre botón "Buscar"
-6. Seleccionar una fila de la lista
-7. Elegir la opción “Editar” del registro 
-8. Se modifica el texto del campo "Ubicación".
-9. Seleccionar el botón " Grabar".
-10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
-11. Seleccionar la opción "Si".
-12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
-  </si>
-  <si>
-    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
-2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
-3. Seleccionar un elemento de la lista “Tipo de Activo”.
-4.  Se ingresa el Nombre de Activo.
-5. Dar clic sobre botón "Buscar"
-6. Seleccionar una fila de la lista
-7. Elegir la opción “Editar” del registro 
-8. Se selecciona otro elemento de la lista desplegable "Moneda".
-9. Seleccionar el botón " Grabar".
-10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
-11. Seleccionar la opción "Si".
-12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
-  </si>
-  <si>
-    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
-2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
-3. Seleccionar un elemento de la lista “Tipo de Activo”.
-4.  Se ingresa el Nombre de Activo.
-5. Dar clic sobre botón "Buscar"
-6. Seleccionar una fila de la lista
-7. Elegir la opción “Editar” del registro 
-8. Se modifica el texto del campo "Costo Activo".
-9. Seleccionar el botón " Grabar".
-10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
-11. Seleccionar la opción "Si".
-12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
-  </si>
-  <si>
-    <t>1. Seleccionar la opción del menú “Mantenimiento de Activos” de la interfaz principal.
-2. El sistema muestra la interfaz "Mantenimiento de Activos” donde se muestra un la lista desplegable de los Tipos de Activos y una caja de texto para ingresar el Nombre de Activo.
-3. Seleccionar un elemento de la lista “Tipo de Activo”.
-4.  Se ingresa el Nombre de Activo.
-5. Dar clic sobre botón "Buscar"
-6. Seleccionar una fila de la lista
-7. Elegir la opción “Editar” del registro 
-8. Se selecciona otro elemento de la lista desplegable "Activo Padre".
-9. Seleccionar el botón " Grabar".
-10. El sistema muestra un mensaje de confirmación " Esta seguro de guardar el registro".
-11. Seleccionar la opción "Si".
-12. El sistema muestra el mensaje " Se guardó satisfactoriamente el registro"</t>
-  </si>
-  <si>
-    <t>1. El sistema realiza la búsqueda y muestra código, Activo, Tipo Activo, RPO, Ubicación, Responsable, Moneda, Costo Activo y Activo Padre como resultado de la búsqueda en la lista creada.</t>
-  </si>
-  <si>
-    <t>1. El sistema realiza la búsqueda y muestra código, nombre, tipo de activo, punto de recuperación objetivo, propietario, moneda, costo del activo y el activo padre, como resultado de la búsqueda.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,26 +845,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -884,14 +869,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -907,11 +894,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -965,106 +965,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,16 +1070,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1156,7 +1148,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1191,7 +1182,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1367,14 +1357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -1384,119 +1374,119 @@
     <col min="8" max="8" width="16" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="345">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>25</v>
+      <c r="B2" s="30" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="40">
+        <v>27</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="39">
         <v>41311</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="390" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="390" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="54.75" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="48.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+        <v>23</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1514,14 +1504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1534,275 +1524,275 @@
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="182.25" customHeight="1">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="39">
+        <v>41310</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="246.75" customHeight="1">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="352.5" customHeight="1">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" ht="348" customHeight="1">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" ht="350.25" customHeight="1">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9" ht="357" customHeight="1">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" ht="354.75" customHeight="1">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="G8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="H8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" ht="356.25" customHeight="1">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="40">
-        <v>41310</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="B9" s="31"/>
+      <c r="C9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="27" t="s">
+      <c r="H9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" ht="345.75" customHeight="1">
+      <c r="A10" s="29">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" ht="334.5" customHeight="1">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" ht="354.75" customHeight="1">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="352.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:9" ht="350.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="1:9" ht="357" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="32"/>
-    </row>
-    <row r="8" spans="1:9" ht="354.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <v>7</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="32"/>
-    </row>
-    <row r="9" spans="1:9" ht="356.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <v>8</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="32"/>
-    </row>
-    <row r="10" spans="1:9" ht="345.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
-        <v>8</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="32"/>
-    </row>
-    <row r="11" spans="1:9" ht="334.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
-        <v>10</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" spans="1:9" ht="354.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
-        <v>11</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="G12" s="15" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="I12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1811,20 +1801,21 @@
     <mergeCell ref="E2:E12"/>
     <mergeCell ref="I3:I12"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1837,205 +1828,205 @@
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="306" customHeight="1">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="43">
+        <v>41310</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="303.75" customHeight="1">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" ht="301.5" customHeight="1">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" ht="317.25" customHeight="1">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:9" ht="301.5" customHeight="1">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" ht="301.5" customHeight="1">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" ht="299.25" customHeight="1">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" ht="304.5" customHeight="1">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="306" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
-        <v>1</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="44">
-        <v>41310</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="303.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
-        <v>2</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="43"/>
-    </row>
-    <row r="4" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <v>3</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="1:9" ht="317.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
-        <v>4</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
-        <v>5</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="1:9" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
-        <v>6</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="1:9" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <v>7</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="1:9" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <v>8</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" spans="1:9" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" ht="306" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="43"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+        <v>49</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="43"/>
+        <v>81</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2048,20 +2039,21 @@
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="H7:H10"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -2074,216 +2066,216 @@
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="315">
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>33</v>
+      <c r="B2" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="44">
+        <v>27</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="43">
         <v>41311</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="315">
       <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
+        <v>21</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="43"/>
-    </row>
-    <row r="4" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" ht="315">
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" ht="315">
       <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+        <v>23</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:9" ht="315">
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+        <v>28</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" ht="315">
       <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+        <v>46</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" ht="315">
       <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+        <v>47</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" ht="315">
       <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+        <v>48</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" ht="315">
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+        <v>49</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" ht="330">
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+        <v>60</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="43"/>
+        <v>62</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2301,14 +2293,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -2321,80 +2313,80 @@
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5">
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>51</v>
+      <c r="B2" s="42" t="s">
+        <v>63</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="44">
+        <v>27</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="43">
         <v>41311</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.5">
       <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
+        <v>21</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="49"/>
+        <v>66</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2412,14 +2404,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="75" workbookViewId="0">
       <selection activeCell="I3" sqref="I3:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -2431,146 +2423,146 @@
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="190.5" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>14</v>
+      <c r="B2" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="40">
+        <v>27</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="39">
         <v>41311</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="363.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="363.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="41"/>
+        <v>21</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>25</v>
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="362.25" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="41"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="51"/>
+        <v>34</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="50"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="345">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="41"/>
+        <v>23</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="52"/>
+        <v>36</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="409.6" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="42"/>
+        <v>28</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J6" s="8"/>
     </row>
